--- a/DATA_goal/Junction_Flooding_199.xlsx
+++ b/DATA_goal/Junction_Flooding_199.xlsx
@@ -655,103 +655,103 @@
         <v>41631.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>87.58</v>
+        <v>8.76</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41631.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>69.34999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41631.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.55</v>
+        <v>2.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>79.64</v>
+        <v>7.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41631.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>53.33</v>
+        <v>5.33</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41631.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>30.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.77</v>
-      </c>
       <c r="K6" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>158.61</v>
+        <v>15.86</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>30.39</v>
+        <v>3.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.01</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>35.68</v>
+        <v>3.57</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41631.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>41.94</v>
+        <v>4.19</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41631.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.72</v>
+        <v>3.87</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.69</v>
+        <v>3.17</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.44</v>
+        <v>2.14</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y8" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>204.39</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>38.78</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Z8" s="4" t="n">
-        <v>25.39</v>
+        <v>2.54</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>45.66</v>
+        <v>4.57</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41631.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.97</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.76</v>
+        <v>3.28</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>55.99</v>
+        <v>5.6</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.15</v>
+        <v>2.21</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.4</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>211.28</v>
+        <v>21.13</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>40.17</v>
+        <v>4.02</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>27.06</v>
+        <v>2.71</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>27.65</v>
+        <v>2.76</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>51.02</v>
+        <v>5.1</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41631.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.27</v>
+        <v>3.33</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.26</v>
+        <v>2.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>47.9</v>
+        <v>4.79</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>174.66</v>
+        <v>17.47</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.47</v>
+        <v>3.35</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.54</v>
+        <v>2.25</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.42</v>
+        <v>2.34</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>43.65</v>
+        <v>4.36</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_199.xlsx
+++ b/DATA_goal/Junction_Flooding_199.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41631.34027777778</v>
+        <v>44880.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.76</v>
+        <v>2.26</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>0.62</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.79</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.55</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.76</v>
+        <v>26.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.71</v>
+        <v>4.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.58</v>
+        <v>1.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.04</v>
+        <v>3.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.02</v>
+        <v>2.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.48</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.46</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.75</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.39</v>
+        <v>5.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41631.34722222222</v>
+        <v>44880.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="J3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.67</v>
-      </c>
       <c r="Q3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.94</v>
+        <v>3.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.88</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41631.35416666666</v>
+        <v>44880.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.71</v>
+        <v>2.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.58</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.6</v>
+        <v>4.66</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.15</v>
+        <v>6.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.87</v>
+        <v>2.62</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.15</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.78</v>
+        <v>2.4</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.96</v>
+        <v>25.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.6</v>
+        <v>4.72</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.56</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.04</v>
+        <v>3.16</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.69</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.99</v>
+        <v>5.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41631.36111111111</v>
+        <v>44880.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="W5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41631.36805555555</v>
+        <v>44880.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.38</v>
+        <v>8.65</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.04</v>
+        <v>6.23</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.72</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.04</v>
+        <v>18.56</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.47</v>
+        <v>15.35</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.06</v>
+        <v>6.81</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.93</v>
+        <v>26.68</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.68</v>
+        <v>10.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.78</v>
+        <v>4.57</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.1</v>
+        <v>6.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.21</v>
+        <v>7.55</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.3</v>
+        <v>7.82</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.37</v>
+        <v>2.17</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.09</v>
+        <v>6.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.53</v>
+        <v>9.56</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.92</v>
+        <v>5.81</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.62</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.86</v>
+        <v>95.66</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.04</v>
+        <v>18.9</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.01</v>
+        <v>6.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.03</v>
+        <v>12.57</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.09</v>
+        <v>6.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2</v>
+        <v>12.69</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.88</v>
+        <v>5.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.79</v>
+        <v>4.96</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>5.82</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.29</v>
+        <v>7.86</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.57</v>
+        <v>23.96</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.58</v>
+        <v>3.47</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41631.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41631.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41631.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41631.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41631.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.26</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>34.71</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>58.89</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.44</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.98</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>223.87</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>42.47</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.47</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_199.xlsx
+++ b/DATA_goal/Junction_Flooding_199.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44880.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>47.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.93</v>
+        <v>39.28</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.88</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.48</v>
+        <v>24.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.16</v>
+        <v>261.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.93</v>
+        <v>29.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.19</v>
+        <v>51.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44880.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44880.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.66</v>
+        <v>46.61</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.55</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.2</v>
+        <v>61.96</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.02</v>
+        <v>250.18</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.72</v>
+        <v>47.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.16</v>
+        <v>31.64</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.05</v>
+        <v>30.52</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.58</v>
+        <v>55.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44880.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.55</v>
+        <v>25.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>72.83</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.34</v>
+        <v>23.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_199.xlsx
+++ b/DATA_goal/Junction_Flooding_199.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.54</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.49</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.28</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.77</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.88</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.83</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.73</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.67</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.85</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.62</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.2</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.64</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.03</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.27</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.94</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.14</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.49</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.9</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.39</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44880.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.84</v>
+        <v>3.843</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.72</v>
+        <v>7.715</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.402</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.026</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.95</v>
+        <v>17.946</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.849</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>3.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.18</v>
+        <v>4.183</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.812</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.518</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.54</v>
+        <v>38.537</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>8.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.6</v>
+        <v>5.598</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.04</v>
+        <v>3.043</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.97</v>
+        <v>7.972</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.419</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.16</v>
+        <v>3.157</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.55</v>
+        <v>16.552</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.412</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.47</v>
+        <v>3.475</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44880.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.79</v>
+        <v>15.789</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.498</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>46.61</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.55</v>
+        <v>38.554</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>61.96</v>
+        <v>61.963</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.54</v>
+        <v>11.537</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.31</v>
+        <v>17.313</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.79</v>
+        <v>18.787</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.69</v>
+        <v>19.688</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.43</v>
+        <v>5.433</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.01</v>
+        <v>24.007</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.29</v>
+        <v>14.291</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.127</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.965</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>250.18</v>
+        <v>250.184</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>47.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.64</v>
+        <v>31.644</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.86</v>
+        <v>16.861</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.091</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.52</v>
+        <v>30.517</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.29</v>
+        <v>12.291</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.43</v>
+        <v>14.431</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.66</v>
+        <v>19.658</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.79</v>
+        <v>55.788</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>8.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44880.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_199.xlsx
+++ b/DATA_goal/Junction_Flooding_199.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44880.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.72</v>
+        <v>4.716</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.85</v>
+        <v>11.848</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.29</v>
+        <v>5.294</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.51</v>
+        <v>25.509</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.54</v>
+        <v>3.538</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.257</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.84</v>
+        <v>5.841</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.01</v>
+        <v>6.006</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.45</v>
+        <v>7.455</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.595</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.83</v>
+        <v>72.828</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.96</v>
+        <v>14.955</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.33</v>
+        <v>5.326</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.583</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.769</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.58</v>
+        <v>4.579</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.06</v>
+        <v>6.062</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.37</v>
+        <v>23.369</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.658</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.08</v>
+        <v>6.075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44880.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_199.xlsx
+++ b/DATA_goal/Junction_Flooding_199.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44880.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.726</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.716</v>
+        <v>4.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.317</v>
+        <v>14.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.848</v>
+        <v>11.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.294</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.509</v>
+        <v>25.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.144</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.538</v>
+        <v>3.54</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.257</v>
+        <v>5.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.841</v>
+        <v>5.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.006</v>
+        <v>6.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.697</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.455</v>
+        <v>7.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.595</v>
+        <v>4.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.423</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.828</v>
+        <v>72.83</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.955</v>
+        <v>14.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.891999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.326</v>
+        <v>5.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.583</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.769</v>
+        <v>11.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.291</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.916</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.579</v>
+        <v>4.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.062</v>
+        <v>6.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.369</v>
+        <v>23.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.658</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.075</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44880.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
